--- a/Paper Rebuttal/Adjustments_12_2019/Distance_Total_Data/departure_table.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Distance_Total_Data/departure_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Animal</t>
   </si>
@@ -44,6 +44,12 @@
   <si>
     <t>after_center</t>
   </si>
+  <si>
+    <t>partner_dev_score</t>
+  </si>
+  <si>
+    <t>novel_dev_score</t>
+  </si>
 </sst>
 </file>
 
@@ -63,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -73,14 +79,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:L55"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="true"/>
@@ -103,38 +113,46 @@
     <col min="8" max="8" width="13" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.140625" customWidth="true"/>
+    <col min="11" max="11" width="17.7109375" customWidth="true"/>
+    <col min="12" max="12" width="16.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -168,6 +186,9 @@
       <c r="J2">
         <v>120.09451138551009</v>
       </c>
+      <c r="K2">
+        <v>3.3572928653846157</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -200,6 +221,12 @@
       <c r="J3">
         <v>188.25994664628749</v>
       </c>
+      <c r="K3">
+        <v>6.5342690972000002</v>
+      </c>
+      <c r="L3">
+        <v>2.3694325450194649</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -216,6 +243,12 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>2.3130223295000003</v>
+      </c>
+      <c r="L5">
+        <v>2.1082213402727001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -248,6 +281,12 @@
       <c r="J6">
         <v>453.61516187213897</v>
       </c>
+      <c r="K6">
+        <v>2.8470072979999999</v>
+      </c>
+      <c r="L6">
+        <v>3.6069151076527373</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -280,6 +319,12 @@
       <c r="J7">
         <v>183.14447468502794</v>
       </c>
+      <c r="K7">
+        <v>3.2037919069999998</v>
+      </c>
+      <c r="L7">
+        <v>2.5034458113704678</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -312,6 +357,12 @@
       <c r="J8">
         <v>182.84778906054169</v>
       </c>
+      <c r="K8">
+        <v>2.0031984899999999</v>
+      </c>
+      <c r="L8">
+        <v>2.2504011880745267</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -344,6 +395,12 @@
       <c r="J9">
         <v>31.351549397735397</v>
       </c>
+      <c r="K9">
+        <v>2.1649208229999997</v>
+      </c>
+      <c r="L9">
+        <v>0.69091974778443399</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -376,6 +433,12 @@
       <c r="J10">
         <v>86.09700973984809</v>
       </c>
+      <c r="K10">
+        <v>4.0732638149999998</v>
+      </c>
+      <c r="L10">
+        <v>2.8845375156439781</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -408,6 +471,12 @@
       <c r="J11">
         <v>109.23300580862819</v>
       </c>
+      <c r="K11">
+        <v>2.7540683056666668</v>
+      </c>
+      <c r="L11">
+        <v>5.7894014831124307</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -440,6 +509,12 @@
       <c r="J12">
         <v>105.9025748652334</v>
       </c>
+      <c r="K12">
+        <v>5.1171001112666659</v>
+      </c>
+      <c r="L12">
+        <v>3.6884527937991201</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -472,6 +547,12 @@
       <c r="J13">
         <v>74.59418194703386</v>
       </c>
+      <c r="K13">
+        <v>3.6752228396666666</v>
+      </c>
+      <c r="L13">
+        <v>2.6225375840591649</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -504,6 +585,9 @@
       <c r="J14">
         <v>99.475060532545243</v>
       </c>
+      <c r="K14">
+        <v>3.6893305789999999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -544,6 +628,12 @@
       <c r="J16">
         <v>23.815769549034002</v>
       </c>
+      <c r="K16">
+        <v>4.3311624489999998</v>
+      </c>
+      <c r="L16">
+        <v>3.8391750634003152</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -576,6 +666,12 @@
       <c r="J17">
         <v>54.888011192565955</v>
       </c>
+      <c r="K17">
+        <v>4.3316310925000003</v>
+      </c>
+      <c r="L17">
+        <v>3.8393555613773902</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -608,6 +704,12 @@
       <c r="J18">
         <v>139.4935702263744</v>
       </c>
+      <c r="K18">
+        <v>8.0630410962500001</v>
+      </c>
+      <c r="L18">
+        <v>4.6276153073882611</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -640,6 +742,12 @@
       <c r="J19">
         <v>95.57941001165652</v>
       </c>
+      <c r="K19">
+        <v>15.009387739499999</v>
+      </c>
+      <c r="L19">
+        <v>5.0059637517853686</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -672,6 +780,12 @@
       <c r="J20">
         <v>148.8911314033092</v>
       </c>
+      <c r="K20">
+        <v>13.2134937085</v>
+      </c>
+      <c r="L20">
+        <v>8.5319445034705961</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -704,6 +818,12 @@
       <c r="J21">
         <v>146.36275933687733</v>
       </c>
+      <c r="K21">
+        <v>7.1835647633846174</v>
+      </c>
+      <c r="L21">
+        <v>3.5920317897725429</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -736,6 +856,12 @@
       <c r="J22">
         <v>62.449710653010598</v>
       </c>
+      <c r="K22">
+        <v>5.5672538139999999</v>
+      </c>
+      <c r="L22">
+        <v>3.7025868683571628</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -768,6 +894,12 @@
       <c r="J23">
         <v>137.4725947889215</v>
       </c>
+      <c r="K23">
+        <v>1.7171741</v>
+      </c>
+      <c r="L23">
+        <v>1.1682452944755799</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -800,6 +932,12 @@
       <c r="J24">
         <v>244.5305016678</v>
       </c>
+      <c r="K24">
+        <v>3.9733143645000002</v>
+      </c>
+      <c r="L24">
+        <v>3.3740044346986702</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -840,6 +978,12 @@
       <c r="J26">
         <v>135.2342366190546</v>
       </c>
+      <c r="K26">
+        <v>4.9174505110000002</v>
+      </c>
+      <c r="L26">
+        <v>6.1307641298732536</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -880,6 +1024,12 @@
       <c r="J28">
         <v>127.00561710452075</v>
       </c>
+      <c r="K28">
+        <v>8.8235480308749992</v>
+      </c>
+      <c r="L28">
+        <v>3.0305013662399927</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -912,6 +1062,12 @@
       <c r="J29">
         <v>106.60331394533131</v>
       </c>
+      <c r="K29">
+        <v>3.0638878677500001</v>
+      </c>
+      <c r="L29">
+        <v>6.6141856244343673</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -944,6 +1100,9 @@
       <c r="J30">
         <v>145.19908541767614</v>
       </c>
+      <c r="K30">
+        <v>3.1209301225714277</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -976,6 +1135,9 @@
       <c r="J31">
         <v>139.07772466904478</v>
       </c>
+      <c r="K31">
+        <v>2.342104979777778</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -1008,6 +1170,12 @@
       <c r="J32">
         <v>102.40720002371107</v>
       </c>
+      <c r="K32">
+        <v>3.4567997495</v>
+      </c>
+      <c r="L32">
+        <v>4.1069191685068445</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -1048,6 +1216,12 @@
       <c r="J34">
         <v>70.764466424683391</v>
       </c>
+      <c r="K34">
+        <v>3.0661513437500001</v>
+      </c>
+      <c r="L34">
+        <v>2.6742822833971829</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -1088,6 +1262,9 @@
       <c r="J36">
         <v>92.683281526205135</v>
       </c>
+      <c r="K36">
+        <v>2.5993776362499998</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -1120,6 +1297,9 @@
       <c r="J37">
         <v>57.447193244905847</v>
       </c>
+      <c r="K37">
+        <v>1.418898091</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -1152,6 +1332,12 @@
       <c r="J38">
         <v>83.646657279438003</v>
       </c>
+      <c r="K38">
+        <v>2.0855416729999998</v>
+      </c>
+      <c r="L38">
+        <v>1.5240205608736901</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -1184,6 +1370,12 @@
       <c r="J39">
         <v>140.65502080764651</v>
       </c>
+      <c r="K39">
+        <v>1.4522172659999999</v>
+      </c>
+      <c r="L39">
+        <v>1.7566825612817101</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -1216,6 +1408,9 @@
       <c r="J40">
         <v>184.22899011827599</v>
       </c>
+      <c r="K40">
+        <v>12.630917289599999</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -1248,6 +1443,12 @@
       <c r="J41">
         <v>135.63185981057151</v>
       </c>
+      <c r="K41">
+        <v>2.0382652019999998</v>
+      </c>
+      <c r="L41">
+        <v>3.2905269664222936</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -1280,6 +1481,12 @@
       <c r="J42">
         <v>259.44108142773302</v>
       </c>
+      <c r="K42">
+        <v>2.6242334046666667</v>
+      </c>
+      <c r="L42">
+        <v>3.3386690839512121</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -1312,6 +1519,12 @@
       <c r="J43">
         <v>170.41662565509702</v>
       </c>
+      <c r="K43">
+        <v>2.5421562723571429</v>
+      </c>
+      <c r="L43">
+        <v>2.4046124300760701</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -1344,6 +1557,12 @@
       <c r="J44">
         <v>216.33366293794597</v>
       </c>
+      <c r="K44">
+        <v>2.7325671313333331</v>
+      </c>
+      <c r="L44">
+        <v>4.0342077863541901</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -1376,6 +1595,12 @@
       <c r="J45">
         <v>220.66911193378218</v>
       </c>
+      <c r="K45">
+        <v>19.6915196054</v>
+      </c>
+      <c r="L45">
+        <v>4.2350412154906447</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -1408,6 +1633,12 @@
       <c r="J46">
         <v>161.62282586727676</v>
       </c>
+      <c r="K46">
+        <v>3.0359893630000001</v>
+      </c>
+      <c r="L46">
+        <v>3.0967255434517966</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -1440,6 +1671,12 @@
       <c r="J47">
         <v>116.067158114877</v>
       </c>
+      <c r="K47">
+        <v>1.3538690684999999</v>
+      </c>
+      <c r="L47">
+        <v>2.4058849661880797</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -1472,6 +1709,12 @@
       <c r="J48">
         <v>189.0326930062223</v>
       </c>
+      <c r="K48">
+        <v>3.77557003125</v>
+      </c>
+      <c r="L48">
+        <v>2.91880802259689</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -1504,6 +1747,12 @@
       <c r="J49">
         <v>268.17740416596638</v>
       </c>
+      <c r="K49">
+        <v>2.3927504265000001</v>
+      </c>
+      <c r="L49">
+        <v>2.9686119686447103</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -1536,6 +1785,12 @@
       <c r="J50">
         <v>68.536822905677695</v>
       </c>
+      <c r="K50">
+        <v>1.1762830500000001</v>
+      </c>
+      <c r="L50">
+        <v>1.9495054642346501</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -1568,6 +1823,12 @@
       <c r="J51">
         <v>168.10715674289355</v>
       </c>
+      <c r="K51">
+        <v>3.4515893163333335</v>
+      </c>
+      <c r="L51">
+        <v>3.3448988355402198</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -1600,6 +1861,12 @@
       <c r="J52">
         <v>113.51511224301204</v>
       </c>
+      <c r="K52">
+        <v>1.3942953979999999</v>
+      </c>
+      <c r="L52">
+        <v>4.5681605475095743</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -1632,6 +1899,12 @@
       <c r="J53">
         <v>140.41638857892971</v>
       </c>
+      <c r="K53">
+        <v>2.925705249</v>
+      </c>
+      <c r="L53">
+        <v>2.071896803889016</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -1664,6 +1937,12 @@
       <c r="J54">
         <v>225.61072888838885</v>
       </c>
+      <c r="K54">
+        <v>2.3264901793999999</v>
+      </c>
+      <c r="L54">
+        <v>1.8654058420776525</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -1696,6 +1975,9 @@
       <c r="J55">
         <v>165.03769215387601</v>
       </c>
+      <c r="L55">
+        <v>3.7030804738522982</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
